--- a/src/main/java/testdata/Automation Input File.xlsx
+++ b/src/main/java/testdata/Automation Input File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="DetailsPage" sheetId="17" r:id="rId1"/>
@@ -15,19 +15,19 @@
     <sheet name="T1Setup" sheetId="6" r:id="rId6"/>
     <sheet name="T1SetupAddSubcontractor" sheetId="7" r:id="rId7"/>
     <sheet name="T1AddEmployee" sheetId="9" r:id="rId8"/>
-    <sheet name="T1ImportEmployee" sheetId="10" r:id="rId9"/>
-    <sheet name="T1EditImport" sheetId="11" r:id="rId10"/>
-    <sheet name="T1WorkClasses" sheetId="14" r:id="rId11"/>
-    <sheet name="T1ManualPayroll" sheetId="15" r:id="rId12"/>
-    <sheet name="T1EditPayroll" sheetId="16" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId14"/>
+    <sheet name="ExistingEmployee" sheetId="18" r:id="rId9"/>
+    <sheet name="T1EditAddEmployee" sheetId="11" r:id="rId10"/>
+    <sheet name="T1ImportEmployee" sheetId="10" r:id="rId11"/>
+    <sheet name="T1WorkClasses" sheetId="14" r:id="rId12"/>
+    <sheet name="T1ManualPayroll" sheetId="15" r:id="rId13"/>
+    <sheet name="T1EditPayroll" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="288">
   <si>
     <t>EIN</t>
   </si>
@@ -515,36 +515,9 @@
     <t>15.65</t>
   </si>
   <si>
-    <t>EmployeeIDNew</t>
-  </si>
-  <si>
-    <t>PhoneNo</t>
-  </si>
-  <si>
-    <t>216 Kessla Way</t>
-  </si>
-  <si>
-    <t>Florence</t>
-  </si>
-  <si>
-    <t>635-748-1246</t>
-  </si>
-  <si>
     <t>EditEffectiveDate</t>
   </si>
   <si>
-    <t>EditApprenticeN</t>
-  </si>
-  <si>
-    <t>ESSN</t>
-  </si>
-  <si>
-    <t>46457568</t>
-  </si>
-  <si>
-    <t>29501</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -629,9 +602,6 @@
     <t>Existing Hire</t>
   </si>
   <si>
-    <t>67676890</t>
-  </si>
-  <si>
     <t>Employee Union 2</t>
   </si>
   <si>
@@ -641,27 +611,6 @@
     <t>Item 2</t>
   </si>
   <si>
-    <t>01/01/2009</t>
-  </si>
-  <si>
-    <t>BaseRate2</t>
-  </si>
-  <si>
-    <t>OTRate2</t>
-  </si>
-  <si>
-    <t>DTRate2</t>
-  </si>
-  <si>
-    <t>FringeRate2</t>
-  </si>
-  <si>
-    <t>Item 1</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
     <t>WorkClass</t>
   </si>
   <si>
@@ -716,12 +665,6 @@
     <t>AutomationLayoutNew</t>
   </si>
   <si>
-    <t>Mounish, Anish</t>
-  </si>
-  <si>
-    <t>Shamili, Abinaya</t>
-  </si>
-  <si>
     <t>SelectTimePeriod</t>
   </si>
   <si>
@@ -881,12 +824,6 @@
     <t>FreeText</t>
   </si>
   <si>
-    <t>6127</t>
-  </si>
-  <si>
-    <t>1426538</t>
-  </si>
-  <si>
     <t>HiredDate</t>
   </si>
   <si>
@@ -917,19 +854,43 @@
     <t xml:space="preserve">M2N 5N1 </t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Renuka</t>
-  </si>
-  <si>
-    <t>Rajendran</t>
-  </si>
-  <si>
-    <t>5378</t>
-  </si>
-  <si>
-    <t>9741258</t>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>07/31/2022</t>
+  </si>
+  <si>
+    <t>DateTerminated</t>
+  </si>
+  <si>
+    <t>06/20/2022</t>
+  </si>
+  <si>
+    <t>1425481452</t>
+  </si>
+  <si>
+    <t>Aliya</t>
+  </si>
+  <si>
+    <t>Manasa</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>124578</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Manasa, Aliya, s</t>
+  </si>
+  <si>
+    <t>Aliyaa</t>
+  </si>
+  <si>
+    <t>Manasa, Aliyaa, s</t>
   </si>
 </sst>
 </file>
@@ -991,13 +952,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0288D1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
@@ -1006,6 +960,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0288D1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1031,7 +991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1048,9 +1008,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1370,10 +1327,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
         <v>111</v>
@@ -1385,40 +1342,40 @@
         <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="G1" t="s">
         <v>114</v>
       </c>
       <c r="H1" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="I1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5">
-      <c r="A2" s="18" t="s">
-        <v>277</v>
+      <c r="A2" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="18" t="s">
-        <v>278</v>
+      <c r="C2" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>101</v>
@@ -1432,127 +1389,141 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>198</v>
+      <c r="T1" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>203</v>
+      <c r="I2" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="J2" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="6">
-        <v>25</v>
-      </c>
-      <c r="N2" s="6">
-        <v>30</v>
-      </c>
       <c r="O2" s="6">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P2" s="6">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>10</v>
+      </c>
+      <c r="R2" s="6">
+        <v>10</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="17" t="s">
-        <v>229</v>
+      <c r="T2" s="18" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -1562,6 +1533,128 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1573,33 +1666,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>152</v>
@@ -1608,13 +1701,13 @@
         <v>139</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1623,11 +1716,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1:AN3"/>
     </sheetView>
   </sheetViews>
@@ -1640,96 +1733,96 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="H1" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="I1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="J1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="K1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="L1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="N1" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="O1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="P1" t="s">
         <v>66</v>
       </c>
       <c r="Q1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" t="s">
+        <v>222</v>
+      </c>
+      <c r="S1" t="s">
+        <v>223</v>
+      </c>
+      <c r="T1" t="s">
+        <v>224</v>
+      </c>
+      <c r="U1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V1" t="s">
+        <v>234</v>
+      </c>
+      <c r="W1" t="s">
+        <v>238</v>
+      </c>
+      <c r="X1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB1" t="s">
         <v>240</v>
-      </c>
-      <c r="R1" t="s">
-        <v>241</v>
-      </c>
-      <c r="S1" t="s">
-        <v>242</v>
-      </c>
-      <c r="T1" t="s">
-        <v>243</v>
-      </c>
-      <c r="U1" t="s">
-        <v>244</v>
-      </c>
-      <c r="V1" t="s">
-        <v>253</v>
-      </c>
-      <c r="W1" t="s">
-        <v>257</v>
-      </c>
-      <c r="X1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="6" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C2">
         <v>10.5</v>
@@ -1744,7 +1837,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1756,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>157</v>
@@ -1789,7 +1882,7 @@
         <v>200</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="W2">
         <v>10</v>
@@ -1816,84 +1909,84 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="D1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="F1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="G1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="I1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
         <v>66</v>
       </c>
       <c r="K1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="L1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="M1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="N1" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="O1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="P1" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="Q1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="R1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="S1" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="6" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D2">
         <v>10.5</v>
@@ -1932,7 +2025,7 @@
         <v>200</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>157</v>
@@ -1941,150 +2034,7 @@
         <v>5</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="17.25">
-      <c r="A2" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
         <v>210</v>
-      </c>
-      <c r="E2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" s="6">
-        <v>70</v>
-      </c>
-      <c r="S2" s="6">
-        <v>80</v>
-      </c>
-      <c r="T2" s="6">
-        <v>90</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2260,13 +2210,13 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2352,7 +2302,7 @@
         <v>82</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="AH2" s="7" t="s">
         <v>93</v>
@@ -2379,16 +2329,16 @@
         <v>72</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="AR2" t="s">
         <v>10</v>
       </c>
       <c r="AS2" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AT2" t="s">
         <v>13</v>
@@ -2397,7 +2347,7 @@
         <v>15</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="AW2" t="s">
         <v>16</v>
@@ -2651,7 +2601,7 @@
         <v>85</v>
       </c>
       <c r="S1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="T1" t="s">
         <v>88</v>
@@ -2668,13 +2618,13 @@
         <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
         <v>98</v>
@@ -2730,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2790,7 +2740,7 @@
         <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>109</v>
@@ -2805,7 +2755,7 @@
         <v>112</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>113</v>
@@ -2814,10 +2764,10 @@
         <v>114</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>121</v>
@@ -2850,7 +2800,7 @@
         <v>125</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>96</v>
@@ -2903,19 +2853,19 @@
     </row>
     <row r="2" spans="1:52" ht="17.25">
       <c r="A2" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" t="s">
-        <v>298</v>
+        <v>284</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2948,30 +2898,30 @@
       <c r="P2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="18" t="s">
-        <v>293</v>
+      <c r="Q2" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="R2" s="2"/>
-      <c r="S2" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="T2" s="19" t="s">
+      <c r="S2" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>51</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="18" t="s">
-        <v>295</v>
+      <c r="V2" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="Z2" t="s">
         <v>122</v>
@@ -3004,7 +2954,7 @@
         <v>138</v>
       </c>
       <c r="AJ2" s="15" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="AK2" s="10" t="s">
         <v>139</v>
@@ -3049,10 +2999,10 @@
         <v>161</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3063,122 +3013,114 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" t="s">
-        <v>186</v>
-      </c>
-      <c r="L1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N1" t="s">
-        <v>189</v>
-      </c>
-      <c r="O1" t="s">
-        <v>190</v>
-      </c>
-      <c r="P1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>175</v>
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" t="s">
-        <v>175</v>
+    <row r="2" spans="1:16" ht="17.25">
+      <c r="A2" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" t="s">
-        <v>192</v>
+        <v>281</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>197</v>
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/testdata/Automation Input File.xlsx
+++ b/src/main/java/testdata/Automation Input File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DetailsPage" sheetId="17" r:id="rId1"/>
@@ -17,17 +17,19 @@
     <sheet name="T1AddEmployee" sheetId="9" r:id="rId8"/>
     <sheet name="ExistingEmployee" sheetId="18" r:id="rId9"/>
     <sheet name="T1EditAddEmployee" sheetId="11" r:id="rId10"/>
-    <sheet name="T1ImportEmployee" sheetId="10" r:id="rId11"/>
-    <sheet name="T1WorkClasses" sheetId="14" r:id="rId12"/>
-    <sheet name="T1ManualPayroll" sheetId="15" r:id="rId13"/>
-    <sheet name="T1EditPayroll" sheetId="16" r:id="rId14"/>
+    <sheet name="T1EditImportEmployee" sheetId="19" r:id="rId11"/>
+    <sheet name="T1ImportEmployee" sheetId="10" r:id="rId12"/>
+    <sheet name="T1WorkClasses" sheetId="14" r:id="rId13"/>
+    <sheet name="T1ManualPayroll" sheetId="15" r:id="rId14"/>
+    <sheet name="T1EditPayroll" sheetId="16" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="307">
   <si>
     <t>EIN</t>
   </si>
@@ -866,31 +868,88 @@
     <t>06/20/2022</t>
   </si>
   <si>
-    <t>1425481452</t>
-  </si>
-  <si>
-    <t>Aliya</t>
-  </si>
-  <si>
-    <t>Manasa</t>
-  </si>
-  <si>
-    <t>1248</t>
-  </si>
-  <si>
-    <t>124578</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
-    <t>Manasa, Aliya, s</t>
-  </si>
-  <si>
-    <t>Aliyaa</t>
-  </si>
-  <si>
-    <t>Manasa, Aliyaa, s</t>
+    <t>06/28/2022</t>
+  </si>
+  <si>
+    <t>Apprentice Number</t>
+  </si>
+  <si>
+    <t>07/31/2023</t>
+  </si>
+  <si>
+    <t>FullName1</t>
+  </si>
+  <si>
+    <t>FullName2</t>
+  </si>
+  <si>
+    <t>04/01/2022</t>
+  </si>
+  <si>
+    <t>08/20/2022</t>
+  </si>
+  <si>
+    <t>10/20/2022</t>
+  </si>
+  <si>
+    <t>135417</t>
+  </si>
+  <si>
+    <t>Part Time Worker</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Johnee</t>
+  </si>
+  <si>
+    <t>6172</t>
+  </si>
+  <si>
+    <t>41145526</t>
+  </si>
+  <si>
+    <t>Bottle Washer-name - Apprentice</t>
+  </si>
+  <si>
+    <t>Bicycle Mechanic - Apprentice</t>
+  </si>
+  <si>
+    <t>Anitha</t>
+  </si>
+  <si>
+    <t>Parthu</t>
+  </si>
+  <si>
+    <t>5124</t>
+  </si>
+  <si>
+    <t>151417425</t>
+  </si>
+  <si>
+    <t>Parthu, Anitha, s</t>
+  </si>
+  <si>
+    <t>Anithaa</t>
+  </si>
+  <si>
+    <t>Parthu, Anithaa, s</t>
+  </si>
+  <si>
+    <t>Suresh, John, w</t>
+  </si>
+  <si>
+    <t>Gani, Rajesh, T</t>
+  </si>
+  <si>
+    <t>Cell Phone Repair - Apprentice</t>
+  </si>
+  <si>
+    <t>Rani, Anirudh, r</t>
   </si>
 </sst>
 </file>
@@ -900,7 +959,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,6 +1028,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0288D1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -991,7 +1056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1011,6 +1076,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1391,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1466,10 +1532,10 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="18" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>275</v>
@@ -1523,7 +1589,7 @@
         <v>101</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -1533,6 +1599,205 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="V2" t="s">
+        <v>295</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -1654,7 +1919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1716,7 +1981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
@@ -1909,7 +2174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -2035,6 +2300,175 @@
       </c>
       <c r="S2" s="6" t="s">
         <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:52" ht="17.25">
+      <c r="A1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2680,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2853,19 +3287,19 @@
     </row>
     <row r="2" spans="1:52" ht="17.25">
       <c r="A2" s="6" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2957,7 +3391,7 @@
         <v>264</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>139</v>
+        <v>294</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>119</v>
@@ -2978,7 +3412,7 @@
         <v>157</v>
       </c>
       <c r="AR2" s="10" t="s">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>158</v>
@@ -3073,22 +3507,22 @@
     </row>
     <row r="2" spans="1:16" ht="17.25">
       <c r="A2" s="18" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" t="s">
-        <v>281</v>
+        <v>279</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>

--- a/src/main/java/testdata/Automation Input File.xlsx
+++ b/src/main/java/testdata/Automation Input File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="DetailsPage" sheetId="17" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="312">
   <si>
     <t>EIN</t>
   </si>
@@ -724,21 +724,9 @@
     <t>DT2</t>
   </si>
   <si>
-    <t>3/7/2022 (Mon)</t>
-  </si>
-  <si>
-    <t>3/10/2022 (Thu)</t>
-  </si>
-  <si>
-    <t>3/12/2022 (Sat)</t>
-  </si>
-  <si>
     <t>Day4</t>
   </si>
   <si>
-    <t>3/11/2022 (Fri)</t>
-  </si>
-  <si>
     <t>OT4</t>
   </si>
   <si>
@@ -931,25 +919,52 @@
     <t>151417425</t>
   </si>
   <si>
-    <t>Parthu, Anitha, s</t>
-  </si>
-  <si>
-    <t>Anithaa</t>
-  </si>
-  <si>
-    <t>Parthu, Anithaa, s</t>
-  </si>
-  <si>
-    <t>Suresh, John, w</t>
-  </si>
-  <si>
-    <t>Gani, Rajesh, T</t>
-  </si>
-  <si>
     <t>Cell Phone Repair - Apprentice</t>
   </si>
   <si>
-    <t>Rani, Anirudh, r</t>
+    <t>Anandh</t>
+  </si>
+  <si>
+    <t>Anandh, Mohan, s</t>
+  </si>
+  <si>
+    <t>Mohana</t>
+  </si>
+  <si>
+    <t>5852</t>
+  </si>
+  <si>
+    <t>512477253</t>
+  </si>
+  <si>
+    <t>Anandh, Mohana, s</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Suren, Johnny, w</t>
+  </si>
+  <si>
+    <t>Ranish, Anil, r</t>
+  </si>
+  <si>
+    <t>Gani, Raina, T</t>
+  </si>
+  <si>
+    <t>7/25/2022 (Mon)</t>
+  </si>
+  <si>
+    <t>7/28/2022 (Thu)</t>
+  </si>
+  <si>
+    <t>7/31/2022 (Sun)</t>
+  </si>
+  <si>
+    <t>7/27/2022 (Wed)</t>
+  </si>
+  <si>
+    <t>07/25/2022 - 07/31/2022</t>
   </si>
 </sst>
 </file>
@@ -959,7 +974,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,12 +1043,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0288D1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1056,7 +1065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1076,7 +1085,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1393,10 +1401,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
         <v>111</v>
@@ -1408,13 +1416,13 @@
         <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G1" t="s">
         <v>114</v>
       </c>
       <c r="H1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I1" t="s">
         <v>145</v>
@@ -1422,26 +1430,26 @@
     </row>
     <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>101</v>
@@ -1455,20 +1463,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>189</v>
       </c>
@@ -1482,114 +1490,108 @@
         <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:19">
       <c r="A2" s="18" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>191</v>
+      <c r="G2" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="J2" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>139</v>
+      <c r="K2" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="4" t="s">
         <v>101</v>
       </c>
+      <c r="N2" s="6">
+        <v>20</v>
+      </c>
       <c r="O2" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P2" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="6">
         <v>10</v>
       </c>
-      <c r="R2" s="6">
-        <v>10</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="T2" s="18" t="s">
-        <v>302</v>
+      <c r="S2" s="18" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -1602,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1618,16 +1620,16 @@
         <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
         <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>126</v>
@@ -1669,7 +1671,7 @@
         <v>144</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>134</v>
@@ -1699,24 +1701,24 @@
         <v>143</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="19" t="s">
-        <v>303</v>
+      <c r="A2" s="10" t="s">
+        <v>305</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>191</v>
@@ -1725,22 +1727,22 @@
         <v>100</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="10" t="s">
         <v>138</v>
       </c>
       <c r="K2" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>157</v>
@@ -1755,25 +1757,25 @@
         <v>10</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>304</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>193</v>
       </c>
       <c r="V2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>63</v>
@@ -1787,7 +1789,7 @@
       <c r="AB2" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="10" t="s">
         <v>306</v>
       </c>
     </row>
@@ -1985,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AN3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2061,33 +2063,33 @@
         <v>225</v>
       </c>
       <c r="V1" t="s">
+        <v>231</v>
+      </c>
+      <c r="W1" t="s">
         <v>234</v>
       </c>
-      <c r="W1" t="s">
-        <v>238</v>
-      </c>
       <c r="X1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB1" t="s">
         <v>236</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" s="6" t="s">
-        <v>213</v>
+      <c r="A2" s="12" t="s">
+        <v>311</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="C2">
         <v>10.5</v>
@@ -2102,7 +2104,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2113,8 +2115,8 @@
       <c r="J2">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>233</v>
+      <c r="K2" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>157</v>
@@ -2146,8 +2148,8 @@
       <c r="U2">
         <v>200</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>235</v>
+      <c r="V2" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="W2">
         <v>10</v>
@@ -2192,7 +2194,7 @@
         <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
         <v>217</v>
@@ -2231,7 +2233,7 @@
         <v>225</v>
       </c>
       <c r="P1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q1" t="s">
         <v>217</v>
@@ -2240,7 +2242,7 @@
         <v>215</v>
       </c>
       <c r="S1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2248,10 +2250,10 @@
         <v>213</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D2">
         <v>10.5</v>
@@ -2290,7 +2292,7 @@
         <v>200</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>157</v>
@@ -2319,19 +2321,19 @@
   <sheetData>
     <row r="1" spans="1:52" ht="17.25">
       <c r="A1" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
@@ -2365,11 +2367,11 @@
         <v>158</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="T1" s="17" t="s">
         <v>51</v>
@@ -2378,16 +2380,16 @@
         <v>53</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>56</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Z1" t="s">
         <v>122</v>
@@ -2420,7 +2422,7 @@
         <v>138</v>
       </c>
       <c r="AJ1" s="15" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AK1" s="10" t="s">
         <v>139</v>
@@ -2465,10 +2467,10 @@
         <v>161</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2644,13 +2646,13 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2736,7 +2738,7 @@
         <v>82</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AH2" s="7" t="s">
         <v>93</v>
@@ -2766,13 +2768,13 @@
         <v>205</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AR2" t="s">
         <v>10</v>
       </c>
       <c r="AS2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AT2" t="s">
         <v>13</v>
@@ -2781,7 +2783,7 @@
         <v>15</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AW2" t="s">
         <v>16</v>
@@ -3114,8 +3116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3189,7 +3191,7 @@
         <v>112</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>113</v>
@@ -3198,10 +3200,10 @@
         <v>114</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>121</v>
@@ -3234,7 +3236,7 @@
         <v>125</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>96</v>
@@ -3287,19 +3289,19 @@
     </row>
     <row r="2" spans="1:52" ht="17.25">
       <c r="A2" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>297</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3333,11 +3335,11 @@
         <v>158</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="T2" s="17" t="s">
         <v>51</v>
@@ -3346,16 +3348,16 @@
         <v>53</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Z2" t="s">
         <v>122</v>
@@ -3388,10 +3390,10 @@
         <v>138</v>
       </c>
       <c r="AJ2" s="15" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>119</v>
@@ -3412,7 +3414,7 @@
         <v>157</v>
       </c>
       <c r="AR2" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>158</v>
@@ -3433,10 +3435,10 @@
         <v>161</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3507,22 +3509,22 @@
     </row>
     <row r="2" spans="1:16" ht="17.25">
       <c r="A2" s="18" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>

--- a/src/main/java/testdata/Automation Input File.xlsx
+++ b/src/main/java/testdata/Automation Input File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DetailsPage" sheetId="17" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="T1ManualPayroll" sheetId="15" r:id="rId14"/>
     <sheet name="T1EditPayroll" sheetId="16" r:id="rId15"/>
     <sheet name="Sheet1" sheetId="20" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="314">
   <si>
     <t>EIN</t>
   </si>
@@ -919,9 +920,6 @@
     <t>151417425</t>
   </si>
   <si>
-    <t>Cell Phone Repair - Apprentice</t>
-  </si>
-  <si>
     <t>Anandh</t>
   </si>
   <si>
@@ -943,28 +941,37 @@
     <t>Mohan</t>
   </si>
   <si>
-    <t>Suren, Johnny, w</t>
-  </si>
-  <si>
-    <t>Ranish, Anil, r</t>
-  </si>
-  <si>
-    <t>Gani, Raina, T</t>
-  </si>
-  <si>
-    <t>7/25/2022 (Mon)</t>
-  </si>
-  <si>
-    <t>7/28/2022 (Thu)</t>
-  </si>
-  <si>
-    <t>7/31/2022 (Sun)</t>
-  </si>
-  <si>
-    <t>7/27/2022 (Wed)</t>
-  </si>
-  <si>
-    <t>07/25/2022 - 07/31/2022</t>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>Anandh, Mohan s!Ranish, Anil r!Ranish, Anil r</t>
+  </si>
+  <si>
+    <t>08/01/2022 - 08/07/2022</t>
+  </si>
+  <si>
+    <t>8/1/2022 (Mon)</t>
+  </si>
+  <si>
+    <t>8/7/2022 (Sun)</t>
+  </si>
+  <si>
+    <t>8/3/2022 (Wed)</t>
+  </si>
+  <si>
+    <t>8/4/2022 (Thu)</t>
+  </si>
+  <si>
+    <t>Suren1, Marthand, w</t>
+  </si>
+  <si>
+    <t>Ranish1, Easwar, r</t>
+  </si>
+  <si>
+    <t>Gani1, Pawan, T</t>
+  </si>
+  <si>
+    <t>Item 1</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1473,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1537,10 +1544,10 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>303</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>271</v>
@@ -1591,7 +1598,7 @@
         <v>101</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -1604,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1706,7 +1713,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="10" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
@@ -1733,10 +1740,10 @@
         <v>135</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" t="s">
-        <v>296</v>
+        <v>313</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>291</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>281</v>
@@ -1760,7 +1767,7 @@
         <v>278</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="T2" s="15" t="s">
         <v>285</v>
@@ -1790,7 +1797,7 @@
         <v>157</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -1987,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2086,10 +2093,10 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="12" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C2">
         <v>10.5</v>
@@ -2104,7 +2111,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2116,7 +2123,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>157</v>
@@ -2125,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="N2">
-        <v>15.5</v>
+        <v>15.148</v>
       </c>
       <c r="O2">
         <v>5</v>
@@ -2143,13 +2150,13 @@
         <v>100</v>
       </c>
       <c r="T2">
-        <v>10</v>
+        <v>10.234500000000001</v>
       </c>
       <c r="U2">
-        <v>200</v>
+        <v>20.124500000000001</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="W2">
         <v>10</v>
@@ -2180,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:Y2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2471,6 +2478,31 @@
       </c>
       <c r="AZ1" s="4" t="s">
         <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3289,19 +3321,19 @@
     </row>
     <row r="2" spans="1:52" ht="17.25">
       <c r="A2" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
         <v>275</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3509,7 +3541,7 @@
     </row>
     <row r="2" spans="1:16" ht="17.25">
       <c r="A2" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>292</v>

--- a/src/main/java/testdata/Automation Input File.xlsx
+++ b/src/main/java/testdata/Automation Input File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="DetailsPage" sheetId="17" r:id="rId1"/>
@@ -22,15 +22,13 @@
     <sheet name="T1WorkClasses" sheetId="14" r:id="rId13"/>
     <sheet name="T1ManualPayroll" sheetId="15" r:id="rId14"/>
     <sheet name="T1EditPayroll" sheetId="16" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId16"/>
-    <sheet name="Sheet2" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="324">
   <si>
     <t>EIN</t>
   </si>
@@ -662,18 +660,12 @@
     <t>New Automation Tier2 Subcontractor March 2022</t>
   </si>
   <si>
-    <t>Shamili</t>
-  </si>
-  <si>
     <t>AutomationLayoutNew</t>
   </si>
   <si>
     <t>SelectTimePeriod</t>
   </si>
   <si>
-    <t>03/07/2022 - 03/13/2022</t>
-  </si>
-  <si>
     <t>SelectDate1</t>
   </si>
   <si>
@@ -764,21 +756,12 @@
     <t>April Subcontractor</t>
   </si>
   <si>
-    <t>Shamili, Abinaya m</t>
-  </si>
-  <si>
     <t>Day1</t>
   </si>
   <si>
-    <t>03/09/2022</t>
-  </si>
-  <si>
     <t>Day2</t>
   </si>
   <si>
-    <t>3/10/2022</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -890,18 +873,6 @@
     <t>Part Time Worker</t>
   </si>
   <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Johnee</t>
-  </si>
-  <si>
-    <t>6172</t>
-  </si>
-  <si>
-    <t>41145526</t>
-  </si>
-  <si>
     <t>Bottle Washer-name - Apprentice</t>
   </si>
   <si>
@@ -941,12 +912,6 @@
     <t>Mohan</t>
   </si>
   <si>
-    <t>EmployeeName</t>
-  </si>
-  <si>
-    <t>Anandh, Mohan s!Ranish, Anil r!Ranish, Anil r</t>
-  </si>
-  <si>
     <t>08/01/2022 - 08/07/2022</t>
   </si>
   <si>
@@ -972,6 +937,69 @@
   </si>
   <si>
     <t>Item 1</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>OT5</t>
+  </si>
+  <si>
+    <t>08/03/2022 - Wednesday</t>
+  </si>
+  <si>
+    <t>DTH3</t>
+  </si>
+  <si>
+    <t>OEH3</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>JT</t>
+  </si>
+  <si>
+    <t>PED</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Cell Phone Repair - Apprentice</t>
+  </si>
+  <si>
+    <t>Pname</t>
+  </si>
+  <si>
+    <t>Pname1</t>
+  </si>
+  <si>
+    <t>Anandh, Mohan s!Ranish, Anil r!Suren, Johnny w</t>
+  </si>
+  <si>
+    <t>Ranish, Anil r</t>
+  </si>
+  <si>
+    <t>Suren, Johnny w</t>
+  </si>
+  <si>
+    <t>Suren, Johnny, w</t>
+  </si>
+  <si>
+    <t>Anandh, Mohan s</t>
   </si>
 </sst>
 </file>
@@ -1408,10 +1436,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
         <v>111</v>
@@ -1423,13 +1451,13 @@
         <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G1" t="s">
         <v>114</v>
       </c>
       <c r="H1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I1" t="s">
         <v>145</v>
@@ -1437,26 +1465,26 @@
     </row>
     <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="16" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="16" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>101</v>
@@ -1473,7 +1501,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1497,7 +1525,7 @@
         <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>121</v>
@@ -1544,19 +1572,19 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="18" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
         <v>190</v>
@@ -1565,7 +1593,7 @@
         <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>192</v>
@@ -1574,7 +1602,7 @@
         <v>193</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>6</v>
@@ -1598,7 +1626,7 @@
         <v>101</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1611,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1627,16 +1655,16 @@
         <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D1" t="s">
         <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>126</v>
@@ -1678,7 +1706,7 @@
         <v>144</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>134</v>
@@ -1708,24 +1736,24 @@
         <v>143</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="10" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>191</v>
@@ -1734,22 +1762,22 @@
         <v>100</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>135</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>157</v>
@@ -1764,25 +1792,25 @@
         <v>10</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>193</v>
       </c>
       <c r="V2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>63</v>
@@ -1797,7 +1825,7 @@
         <v>157</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +1899,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
         <v>166</v>
@@ -1992,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2005,98 +2033,107 @@
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" t="s">
         <v>212</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
         <v>214</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" t="s">
         <v>217</v>
       </c>
-      <c r="D1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>218</v>
-      </c>
-      <c r="G1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K1" t="s">
-        <v>227</v>
-      </c>
-      <c r="L1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O1" t="s">
-        <v>220</v>
       </c>
       <c r="P1" t="s">
         <v>66</v>
       </c>
       <c r="Q1" t="s">
+        <v>219</v>
+      </c>
+      <c r="R1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S1" t="s">
         <v>221</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>222</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>223</v>
       </c>
-      <c r="T1" t="s">
-        <v>224</v>
-      </c>
-      <c r="U1" t="s">
-        <v>225</v>
-      </c>
       <c r="V1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W1" t="s">
+        <v>232</v>
+      </c>
+      <c r="X1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y1" t="s">
         <v>231</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD1" t="s">
         <v>234</v>
       </c>
-      <c r="X1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>236</v>
+      <c r="AE1" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:31">
       <c r="A2" s="12" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C2">
         <v>10.5</v>
@@ -2111,10 +2148,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -2123,16 +2160,16 @@
         <v>5</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>157</v>
+        <v>296</v>
+      </c>
+      <c r="L2" s="6">
+        <v>10</v>
       </c>
       <c r="M2">
         <v>5</v>
       </c>
       <c r="N2">
-        <v>15.148</v>
+        <v>15.14</v>
       </c>
       <c r="O2">
         <v>5</v>
@@ -2156,7 +2193,7 @@
         <v>20.124500000000001</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="W2">
         <v>10</v>
@@ -2168,13 +2205,22 @@
         <v>5.4</v>
       </c>
       <c r="Z2">
+        <v>15</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2">
         <v>200</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>30</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>10</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2185,82 +2231,124 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:49">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
         <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" t="s">
         <v>217</v>
       </c>
-      <c r="E1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>218</v>
-      </c>
-      <c r="H1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I1" t="s">
-        <v>220</v>
       </c>
       <c r="J1" t="s">
         <v>66</v>
       </c>
       <c r="K1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" t="s">
         <v>221</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>222</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>223</v>
       </c>
-      <c r="N1" t="s">
-        <v>224</v>
-      </c>
-      <c r="O1" t="s">
-        <v>225</v>
-      </c>
       <c r="P1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="R1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="S1" t="s">
-        <v>249</v>
+        <v>306</v>
+      </c>
+      <c r="T1" t="s">
+        <v>307</v>
+      </c>
+      <c r="U1" t="s">
+        <v>308</v>
+      </c>
+      <c r="V1" t="s">
+        <v>244</v>
+      </c>
+      <c r="W1" t="s">
+        <v>309</v>
+      </c>
+      <c r="X1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>244</v>
+    <row r="2" spans="1:49">
+      <c r="A2" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>320</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="D2">
         <v>10.5</v>
@@ -2299,214 +2387,68 @@
         <v>200</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>157</v>
+        <v>296</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>10</v>
       </c>
       <c r="R2">
         <v>5</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>210</v>
-      </c>
+      <c r="S2">
+        <v>5.3520000000000003</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z2">
+        <v>30</v>
+      </c>
+      <c r="AA2">
+        <v>20</v>
+      </c>
+      <c r="AB2">
+        <v>20</v>
+      </c>
+      <c r="AC2">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:52" ht="17.25">
-      <c r="A1" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ1" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AW1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2678,13 +2620,13 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2770,7 +2712,7 @@
         <v>82</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AH2" s="7" t="s">
         <v>93</v>
@@ -2800,13 +2742,13 @@
         <v>205</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AR2" t="s">
         <v>10</v>
       </c>
       <c r="AS2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AT2" t="s">
         <v>13</v>
@@ -2815,7 +2757,7 @@
         <v>15</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AW2" t="s">
         <v>16</v>
@@ -3223,7 +3165,7 @@
         <v>112</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>113</v>
@@ -3232,10 +3174,10 @@
         <v>114</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>121</v>
@@ -3268,7 +3210,7 @@
         <v>125</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>96</v>
@@ -3321,19 +3263,19 @@
     </row>
     <row r="2" spans="1:52" ht="17.25">
       <c r="A2" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3367,11 +3309,11 @@
         <v>158</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="16" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="T2" s="17" t="s">
         <v>51</v>
@@ -3380,16 +3322,16 @@
         <v>53</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Z2" t="s">
         <v>122</v>
@@ -3422,10 +3364,10 @@
         <v>138</v>
       </c>
       <c r="AJ2" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>119</v>
@@ -3446,7 +3388,7 @@
         <v>157</v>
       </c>
       <c r="AR2" s="10" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>158</v>
@@ -3467,10 +3409,10 @@
         <v>161</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AZ2" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3541,22 +3483,22 @@
     </row>
     <row r="2" spans="1:16" ht="17.25">
       <c r="A2" s="18" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>

--- a/src/main/java/testdata/Automation Input File.xlsx
+++ b/src/main/java/testdata/Automation Input File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="DetailsPage" sheetId="17" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="T1WorkClasses" sheetId="14" r:id="rId13"/>
     <sheet name="T1ManualPayroll" sheetId="15" r:id="rId14"/>
     <sheet name="T1EditPayroll" sheetId="16" r:id="rId15"/>
+    <sheet name="T1WH347Generation" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="336">
   <si>
     <t>EIN</t>
   </si>
@@ -1000,6 +1001,42 @@
   </si>
   <si>
     <t>Anandh, Mohan s</t>
+  </si>
+  <si>
+    <t>SignatureTitle</t>
+  </si>
+  <si>
+    <t>Hema Jagadeeswari</t>
+  </si>
+  <si>
+    <t>CommenttoWages</t>
+  </si>
+  <si>
+    <t>New Comment Wages</t>
+  </si>
+  <si>
+    <t>PayrollWeekEnding</t>
+  </si>
+  <si>
+    <t>08/07/2022</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Exception occurred</t>
+  </si>
+  <si>
+    <t>Due to wait time</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Remarks not there</t>
   </si>
 </sst>
 </file>
@@ -2233,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2449,6 +2486,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/src/main/java/testdata/Automation Input File.xlsx
+++ b/src/main/java/testdata/Automation Input File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DetailsPage" sheetId="17" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="T1ManualPayroll" sheetId="15" r:id="rId14"/>
     <sheet name="T1EditPayroll" sheetId="16" r:id="rId15"/>
     <sheet name="T1WH347Generation" sheetId="20" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="335">
   <si>
     <t>EIN</t>
   </si>
@@ -832,21 +833,9 @@
     <t>02/01/2015</t>
   </si>
   <si>
-    <t>07/31/2022</t>
-  </si>
-  <si>
     <t>DateTerminated</t>
   </si>
   <si>
-    <t>06/20/2022</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>06/28/2022</t>
-  </si>
-  <si>
     <t>Apprentice Number</t>
   </si>
   <si>
@@ -868,9 +857,6 @@
     <t>10/20/2022</t>
   </si>
   <si>
-    <t>135417</t>
-  </si>
-  <si>
     <t>Part Time Worker</t>
   </si>
   <si>
@@ -880,39 +866,9 @@
     <t>Bicycle Mechanic - Apprentice</t>
   </si>
   <si>
-    <t>Anitha</t>
-  </si>
-  <si>
-    <t>Parthu</t>
-  </si>
-  <si>
-    <t>5124</t>
-  </si>
-  <si>
-    <t>151417425</t>
-  </si>
-  <si>
-    <t>Anandh</t>
-  </si>
-  <si>
     <t>Anandh, Mohan, s</t>
   </si>
   <si>
-    <t>Mohana</t>
-  </si>
-  <si>
-    <t>5852</t>
-  </si>
-  <si>
-    <t>512477253</t>
-  </si>
-  <si>
-    <t>Anandh, Mohana, s</t>
-  </si>
-  <si>
-    <t>Mohan</t>
-  </si>
-  <si>
     <t>08/01/2022 - 08/07/2022</t>
   </si>
   <si>
@@ -928,15 +884,6 @@
     <t>8/4/2022 (Thu)</t>
   </si>
   <si>
-    <t>Suren1, Marthand, w</t>
-  </si>
-  <si>
-    <t>Ranish1, Easwar, r</t>
-  </si>
-  <si>
-    <t>Gani1, Pawan, T</t>
-  </si>
-  <si>
     <t>Item 1</t>
   </si>
   <si>
@@ -1037,6 +984,57 @@
   </si>
   <si>
     <t>Remarks not there</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Logi</t>
+  </si>
+  <si>
+    <t>Simba</t>
+  </si>
+  <si>
+    <t>8172</t>
+  </si>
+  <si>
+    <t>544874257</t>
+  </si>
+  <si>
+    <t>Logesh</t>
+  </si>
+  <si>
+    <t>Simba, Logesh, K</t>
+  </si>
+  <si>
+    <t>Simba, Logi, K</t>
+  </si>
+  <si>
+    <t>11/11/2022</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>Gani1, Pawa, T</t>
+  </si>
+  <si>
+    <t>08/01/2021</t>
+  </si>
+  <si>
+    <t>09/28/2022</t>
+  </si>
+  <si>
+    <t>1354175214</t>
+  </si>
+  <si>
+    <t>06/01/2022</t>
+  </si>
+  <si>
+    <t>Suren1, Marth, w</t>
+  </si>
+  <si>
+    <t>Ranish1, Easw, r</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1560,7 @@
         <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>121</v>
@@ -1609,10 +1607,10 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="18" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>266</v>
@@ -1621,16 +1619,16 @@
         <v>119</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="F2" t="s">
         <v>190</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>56</v>
+        <v>327</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>192</v>
@@ -1639,7 +1637,7 @@
         <v>193</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>6</v>
@@ -1663,7 +1661,7 @@
         <v>101</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -1674,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1687,7 +1685,7 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>189</v>
       </c>
@@ -1695,174 +1693,156 @@
         <v>256</v>
       </c>
       <c r="C1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D1" t="s">
         <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:26">
       <c r="A2" s="10" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>72</v>
+        <v>329</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>282</v>
+      <c r="K2" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="S2" t="s">
         <v>277</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="T2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="V2" s="6">
+        <v>60</v>
+      </c>
+      <c r="W2" s="6">
+        <v>70</v>
+      </c>
+      <c r="X2" s="6">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q2">
-        <v>10</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="V2" t="s">
-        <v>282</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>299</v>
+      <c r="Z2" s="10" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2147,10 +2127,10 @@
         <v>231</v>
       </c>
       <c r="Z1" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="AA1" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="AB1" t="s">
         <v>233</v>
@@ -2167,10 +2147,10 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="12" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C2">
         <v>10.5</v>
@@ -2185,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="H2">
         <v>12</v>
@@ -2197,7 +2177,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="L2" s="6">
         <v>10</v>
@@ -2230,7 +2210,7 @@
         <v>20.124500000000001</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="W2">
         <v>10</v>
@@ -2257,7 +2237,7 @@
         <v>10</v>
       </c>
       <c r="AE2" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2332,46 +2312,46 @@
         <v>213</v>
       </c>
       <c r="S1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="T1" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="U1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="V1" t="s">
         <v>244</v>
       </c>
       <c r="W1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="X1" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="Y1" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="Z1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="AA1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="AB1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="AC1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="AD1" t="s">
         <v>244</v>
       </c>
       <c r="AE1" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="AF1" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="AG1" t="s">
         <v>194</v>
@@ -2379,13 +2359,13 @@
     </row>
     <row r="2" spans="1:49">
       <c r="A2" s="12" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="D2">
         <v>10.5</v>
@@ -2424,7 +2404,7 @@
         <v>200</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="Q2" s="6">
         <v>10</v>
@@ -2442,13 +2422,13 @@
         <v>10</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>261</v>
@@ -2466,13 +2446,13 @@
         <v>10</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AG2" s="10" t="s">
         <v>195</v>
@@ -2493,7 +2473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2501,42 +2481,79 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="D1" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="E1" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="F1" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>335</v>
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3200,7 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3355,25 +3372,25 @@
     </row>
     <row r="2" spans="1:52" ht="17.25">
       <c r="A2" s="6" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>108</v>
@@ -3459,7 +3476,7 @@
         <v>255</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>119</v>
@@ -3480,7 +3497,7 @@
         <v>157</v>
       </c>
       <c r="AR2" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>158</v>
@@ -3518,7 +3535,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3575,28 +3592,28 @@
     </row>
     <row r="2" spans="1:16" ht="17.25">
       <c r="A2" s="18" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>108</v>
@@ -3618,7 +3635,7 @@
         <v>118</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/Automation Input File.xlsx
+++ b/src/main/java/testdata/Automation Input File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="19875" windowHeight="7470" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="DetailsPage" sheetId="17" r:id="rId1"/>
@@ -20,17 +20,16 @@
     <sheet name="T1EditImportEmployee" sheetId="19" r:id="rId11"/>
     <sheet name="T1ImportEmployee" sheetId="10" r:id="rId12"/>
     <sheet name="T1WorkClasses" sheetId="14" r:id="rId13"/>
-    <sheet name="T1ManualPayroll" sheetId="15" r:id="rId14"/>
-    <sheet name="T1EditPayroll" sheetId="16" r:id="rId15"/>
-    <sheet name="T1WH347Generation" sheetId="20" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="21" r:id="rId17"/>
+    <sheet name="T1ManualPayroll" sheetId="22" r:id="rId14"/>
+    <sheet name="T1WH347Generation" sheetId="20" r:id="rId15"/>
+    <sheet name="T1EditPayroll" sheetId="21" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="336">
   <si>
     <t>EIN</t>
   </si>
@@ -605,9 +604,6 @@
     <t>Existing Hire</t>
   </si>
   <si>
-    <t>Employee Union 2</t>
-  </si>
-  <si>
     <t>Temp Worker</t>
   </si>
   <si>
@@ -866,24 +862,6 @@
     <t>Bicycle Mechanic - Apprentice</t>
   </si>
   <si>
-    <t>Anandh, Mohan, s</t>
-  </si>
-  <si>
-    <t>08/01/2022 - 08/07/2022</t>
-  </si>
-  <si>
-    <t>8/1/2022 (Mon)</t>
-  </si>
-  <si>
-    <t>8/7/2022 (Sun)</t>
-  </si>
-  <si>
-    <t>8/3/2022 (Wed)</t>
-  </si>
-  <si>
-    <t>8/4/2022 (Thu)</t>
-  </si>
-  <si>
     <t>Item 1</t>
   </si>
   <si>
@@ -893,9 +871,6 @@
     <t>OT5</t>
   </si>
   <si>
-    <t>08/03/2022 - Wednesday</t>
-  </si>
-  <si>
     <t>DTH3</t>
   </si>
   <si>
@@ -926,30 +901,12 @@
     <t>FR</t>
   </si>
   <si>
-    <t>Cell Phone Repair - Apprentice</t>
-  </si>
-  <si>
     <t>Pname</t>
   </si>
   <si>
     <t>Pname1</t>
   </si>
   <si>
-    <t>Anandh, Mohan s!Ranish, Anil r!Suren, Johnny w</t>
-  </si>
-  <si>
-    <t>Ranish, Anil r</t>
-  </si>
-  <si>
-    <t>Suren, Johnny w</t>
-  </si>
-  <si>
-    <t>Suren, Johnny, w</t>
-  </si>
-  <si>
-    <t>Anandh, Mohan s</t>
-  </si>
-  <si>
     <t>SignatureTitle</t>
   </si>
   <si>
@@ -1035,6 +992,51 @@
   </si>
   <si>
     <t>Ranish1, Easw, r</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>12/26/2022 - 01/01/2023</t>
+  </si>
+  <si>
+    <t>12/26/2022 (Mon)</t>
+  </si>
+  <si>
+    <t>12/29/2022 (Thu)</t>
+  </si>
+  <si>
+    <t>1/1/2023 (Sun)</t>
+  </si>
+  <si>
+    <t>12/28/2022 (Wed)</t>
+  </si>
+  <si>
+    <t>12/28/2022 - Wednesday</t>
+  </si>
+  <si>
+    <t>Singh, Lali - Bottle Washer-name</t>
+  </si>
+  <si>
+    <t>Anandh, Aruna Sree !Singh, Lali K!Singhan, Loshan K</t>
+  </si>
+  <si>
+    <t>Singhan, Loshan K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anandh, Aruna Sree </t>
+  </si>
+  <si>
+    <t>10/01/2023</t>
+  </si>
+  <si>
+    <t>Singh, Lali K</t>
+  </si>
+  <si>
+    <t>Singh, Lali, K</t>
+  </si>
+  <si>
+    <t>Singhan, Loshan, K</t>
   </si>
 </sst>
 </file>
@@ -1471,10 +1473,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s">
         <v>245</v>
-      </c>
-      <c r="B1" t="s">
-        <v>246</v>
       </c>
       <c r="C1" t="s">
         <v>111</v>
@@ -1486,13 +1488,13 @@
         <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G1" t="s">
         <v>114</v>
       </c>
       <c r="H1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I1" t="s">
         <v>145</v>
@@ -1500,26 +1502,26 @@
     </row>
     <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>101</v>
@@ -1560,7 +1562,7 @@
         <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>121</v>
@@ -1607,37 +1609,37 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="18" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
         <v>190</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>193</v>
-      </c>
       <c r="K2" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>6</v>
@@ -1661,7 +1663,7 @@
         <v>101</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
@@ -1690,16 +1692,16 @@
         <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D1" t="s">
         <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>134</v>
@@ -1732,7 +1734,7 @@
         <v>144</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>134</v>
@@ -1762,39 +1764,39 @@
         <v>143</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="10" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>154</v>
@@ -1809,25 +1811,25 @@
         <v>10</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V2" s="6">
         <v>60</v>
@@ -1842,7 +1844,7 @@
         <v>157</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -1916,7 +1918,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
         <v>166</v>
@@ -1985,25 +1987,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2011,7 +2013,7 @@
         <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>152</v>
@@ -2020,13 +2022,13 @@
         <v>139</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2037,439 +2039,221 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" t="s">
         <v>211</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" t="s">
         <v>212</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s">
         <v>215</v>
       </c>
-      <c r="D1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" t="s">
         <v>214</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" t="s">
         <v>216</v>
       </c>
-      <c r="G1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U1" t="s">
+        <v>221</v>
+      </c>
+      <c r="V1" t="s">
+        <v>222</v>
+      </c>
+      <c r="W1" t="s">
         <v>228</v>
       </c>
-      <c r="K1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L1" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>219</v>
-      </c>
-      <c r="R1" t="s">
-        <v>220</v>
-      </c>
-      <c r="S1" t="s">
-        <v>221</v>
-      </c>
-      <c r="T1" t="s">
-        <v>222</v>
-      </c>
-      <c r="U1" t="s">
-        <v>223</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y1" t="s">
         <v>229</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC1" t="s">
         <v>232</v>
-      </c>
-      <c r="X1" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>235</v>
       </c>
       <c r="AD1" t="s">
         <v>234</v>
       </c>
       <c r="AE1" t="s">
-        <v>244</v>
+        <v>233</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2">
+        <v>322</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2">
         <v>10.5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H2">
+      <c r="H2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2">
         <v>12</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="M2" s="6">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>15.14</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>5</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>10</v>
-      </c>
-      <c r="Q2">
-        <v>5</v>
       </c>
       <c r="R2">
         <v>5</v>
       </c>
       <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
         <v>100</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>10.234500000000001</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>20.124500000000001</v>
       </c>
-      <c r="V2" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="W2">
+      <c r="W2" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="X2">
         <v>10</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>5</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>5.4</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>15</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>5</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>200</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>30</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>10</v>
       </c>
-      <c r="AE2" t="s">
-        <v>301</v>
+      <c r="AF2" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:49">
-      <c r="A1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P1" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>215</v>
-      </c>
-      <c r="R1" t="s">
-        <v>213</v>
-      </c>
-      <c r="S1" t="s">
-        <v>288</v>
-      </c>
-      <c r="T1" t="s">
-        <v>289</v>
-      </c>
-      <c r="U1" t="s">
-        <v>290</v>
-      </c>
-      <c r="V1" t="s">
-        <v>244</v>
-      </c>
-      <c r="W1" t="s">
-        <v>291</v>
-      </c>
-      <c r="X1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49">
-      <c r="A2" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2">
-        <v>10.5</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>15.5</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>200</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>10</v>
-      </c>
-      <c r="R2">
-        <v>5</v>
-      </c>
-      <c r="S2">
-        <v>5.3520000000000003</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2">
-        <v>10</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z2">
-        <v>30</v>
-      </c>
-      <c r="AA2">
-        <v>20</v>
-      </c>
-      <c r="AB2">
-        <v>20</v>
-      </c>
-      <c r="AC2">
-        <v>10</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2481,42 +2265,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2524,37 +2308,221 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>129</v>
+    <row r="1" spans="1:49">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>214</v>
+      </c>
+      <c r="R1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" t="s">
+        <v>280</v>
+      </c>
+      <c r="T1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V1" t="s">
+        <v>243</v>
+      </c>
+      <c r="W1" t="s">
+        <v>283</v>
+      </c>
+      <c r="X1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>269</v>
-      </c>
+    <row r="2" spans="1:49">
+      <c r="A2" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2">
+        <v>14.2</v>
+      </c>
+      <c r="E2">
+        <v>12.3</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>15.5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>200</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>5.3520000000000003</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z2">
+        <v>70</v>
+      </c>
+      <c r="AA2">
+        <v>80</v>
+      </c>
+      <c r="AB2">
+        <v>90</v>
+      </c>
+      <c r="AC2">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2729,13 +2697,13 @@
     </row>
     <row r="2" spans="1:50">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2821,7 +2789,7 @@
         <v>82</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AH2" s="7" t="s">
         <v>93</v>
@@ -2848,16 +2816,16 @@
         <v>72</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AQ2" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AR2" t="s">
         <v>10</v>
       </c>
       <c r="AS2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AT2" t="s">
         <v>13</v>
@@ -2866,7 +2834,7 @@
         <v>15</v>
       </c>
       <c r="AV2" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AW2" t="s">
         <v>16</v>
@@ -3120,7 +3088,7 @@
         <v>85</v>
       </c>
       <c r="S1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T1" t="s">
         <v>88</v>
@@ -3137,13 +3105,13 @@
         <v>102</v>
       </c>
       <c r="D2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" t="s">
         <v>208</v>
       </c>
-      <c r="E2" t="s">
-        <v>209</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
         <v>98</v>
@@ -3274,7 +3242,7 @@
         <v>112</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>113</v>
@@ -3283,10 +3251,10 @@
         <v>114</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>121</v>
@@ -3319,7 +3287,7 @@
         <v>125</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>96</v>
@@ -3372,25 +3340,25 @@
     </row>
     <row r="2" spans="1:52" ht="17.25">
       <c r="A2" s="6" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
         <v>179</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>108</v>
@@ -3418,11 +3386,11 @@
         <v>158</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T2" s="17" t="s">
         <v>51</v>
@@ -3431,16 +3399,16 @@
         <v>53</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Z2" t="s">
         <v>122</v>
@@ -3473,10 +3441,10 @@
         <v>138</v>
       </c>
       <c r="AJ2" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL2" s="4" t="s">
         <v>119</v>
@@ -3497,7 +3465,7 @@
         <v>157</v>
       </c>
       <c r="AR2" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>158</v>
@@ -3518,10 +3486,10 @@
         <v>161</v>
       </c>
       <c r="AY2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3592,28 +3560,28 @@
     </row>
     <row r="2" spans="1:16" ht="17.25">
       <c r="A2" s="18" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
         <v>179</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>108</v>
